--- a/biology/Botanique/Pressurage/Pressurage.xlsx
+++ b/biology/Botanique/Pressurage/Pressurage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pressurage ou pressage est une opération mécanique consistant à presser le raisin ou tout autre fruit afin d'en extraire le jus.
 Quel que soit le type de pressoir, son principe est d’extraire le moût des raisins frais, ou le vin du marc de raisin fermenté.
@@ -512,7 +524,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La phase du pressurage est une phase cruciale de la vinification, et le type de pressurage, conditionnera de façon significative les quantités de composés chimiques qui se trouveront dans le vin.
 Un bon pressurage doit éviter de trop triturer la vendange, pour éviter toute déviances comme les arômes herbacés à la dégustation, les phénomènes d’oxydation du moût, ou les jus trop riches en bourbes.
@@ -547,7 +561,9 @@
           <t>Structuration du pressurage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant le pressoir, vertical ou horizontal, le pressurage est organisé en un ou plusieurs cycles de montée en pression. La montée en pression peut être plus ou moins progressive dans le temps, par paliers. La durée de chaque cycle et de la totalité du pressurage varie en fonction du type de pressoir et du type de pressurage à effectuer.
 Afin d'extraire les composés souhaités, il est nécessaire de maîtriser la pression exercée et la durée dans chaque palier.
@@ -582,15 +598,97 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition des composés dans la baie
-La répartition des différents composés dans une baie de raisin n'est pas uniforme.
-Division de la baie en trois zones
-La pulpe de celle-ci peut se diviser en 3 zones :
+          <t>Répartition des composés dans la baie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La répartition des différents composés dans une baie de raisin n'est pas uniforme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pressurage</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pressurage</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pressurage avant vinification : blanc et rosé de pressurage direct</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition des composés dans la baie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Division de la baie en trois zones</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La pulpe de celle-ci peut se diviser en 3 zones :
 la zone intermédiaire, entre la pellicule et les pépins, dont les cellules sont les plus fragiles
 la zone centrale, entourant les pépins
-la zone périphérique, proche de la pellicule, dont le jus sera libéré sous l'action de plus fortes pressions
-Répartition des sucres et acides
-L'équilibre sucre/acide souhaité va dépendre de la zone extraite :
+la zone périphérique, proche de la pellicule, dont le jus sera libéré sous l'action de plus fortes pressions</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pressurage</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pressurage</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pressurage avant vinification : blanc et rosé de pressurage direct</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Répartition des composés dans la baie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Répartition des sucres et acides</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équilibre sucre/acide souhaité va dépendre de la zone extraite :
 les acides se retrouvent en quantité croissante de l'intérieur vers l'extérieur de la baie.
 les sucres, sont quant à eux, plus présents dans la zone intermédiaire et moindre dans la partie centrale
 les minéraux comme le potassium, ayant un effet non négligeable sur le pH, sont plus importants dans la partie périphérique
@@ -600,36 +698,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Pressurage</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pressurage</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Pressurage après vinification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vinification en rouge
-La couleur et la structure souhaitées peuvent également varier en fonction du pressurage, les anthocyanes, composés colorés, et les tanins se retrouvant principalement dans la zone périphérique. On sait que la stabilité de la couleur rouge dans le temps vient de l'équilibre entre ces deux composés.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vinification en rouge</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couleur et la structure souhaitées peuvent également varier en fonction du pressurage, les anthocyanes, composés colorés, et les tanins se retrouvant principalement dans la zone périphérique. On sait que la stabilité de la couleur rouge dans le temps vient de l'équilibre entre ces deux composés.
 Les tanins des pépins sont extraits lorsque la pression est très importante.
-Vinification en blanc en macération pelliculaire
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pressurage</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pressurage</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pressurage après vinification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vinification en blanc en macération pelliculaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Portail de la vigne et du vin                     </t>
         </is>
       </c>
